--- a/natmiOut/OldD0/LR-pairs_lrc2p/F8-Lrp1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/F8-Lrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7772852625426619</v>
+        <v>1.162423666666667</v>
       </c>
       <c r="H2">
-        <v>0.7772852625426619</v>
+        <v>3.487271</v>
       </c>
       <c r="I2">
-        <v>0.5665581364889524</v>
+        <v>0.6447270069705344</v>
       </c>
       <c r="J2">
-        <v>0.5665581364889524</v>
+        <v>0.6447270069705344</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N2">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O2">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P2">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q2">
-        <v>8.372659223479756</v>
+        <v>24.50599914239011</v>
       </c>
       <c r="R2">
-        <v>8.372659223479756</v>
+        <v>220.553992281511</v>
       </c>
       <c r="S2">
-        <v>0.01724270084279672</v>
+        <v>0.03685298349584755</v>
       </c>
       <c r="T2">
-        <v>0.01724270084279672</v>
+        <v>0.03685298349584755</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7772852625426619</v>
+        <v>1.162423666666667</v>
       </c>
       <c r="H3">
-        <v>0.7772852625426619</v>
+        <v>3.487271</v>
       </c>
       <c r="I3">
-        <v>0.5665581364889524</v>
+        <v>0.6447270069705344</v>
       </c>
       <c r="J3">
-        <v>0.5665581364889524</v>
+        <v>0.6447270069705344</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N3">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P3">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q3">
-        <v>231.5071063697868</v>
+        <v>350.5871506803185</v>
       </c>
       <c r="R3">
-        <v>231.5071063697868</v>
+        <v>3155.284356122866</v>
       </c>
       <c r="S3">
-        <v>0.4767670188846788</v>
+        <v>0.5272252889101288</v>
       </c>
       <c r="T3">
-        <v>0.4767670188846788</v>
+        <v>0.5272252889101288</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7772852625426619</v>
+        <v>1.162423666666667</v>
       </c>
       <c r="H4">
-        <v>0.7772852625426619</v>
+        <v>3.487271</v>
       </c>
       <c r="I4">
-        <v>0.5665581364889524</v>
+        <v>0.6447270069705344</v>
       </c>
       <c r="J4">
-        <v>0.5665581364889524</v>
+        <v>0.6447270069705344</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N4">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P4">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q4">
-        <v>35.22784372847183</v>
+        <v>53.62870608010879</v>
       </c>
       <c r="R4">
-        <v>35.22784372847183</v>
+        <v>482.6583547209791</v>
       </c>
       <c r="S4">
-        <v>0.07254841676147684</v>
+        <v>0.08064873456455809</v>
       </c>
       <c r="T4">
-        <v>0.07254841676147684</v>
+        <v>0.08064873456455809</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.406463162424355</v>
+        <v>0.4242653333333333</v>
       </c>
       <c r="H5">
-        <v>0.406463162424355</v>
+        <v>1.272796</v>
       </c>
       <c r="I5">
-        <v>0.2962683366737698</v>
+        <v>0.2353146502133239</v>
       </c>
       <c r="J5">
-        <v>0.2962683366737698</v>
+        <v>0.2353146502133239</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N5">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O5">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P5">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q5">
-        <v>4.37828646685584</v>
+        <v>8.944282702559555</v>
       </c>
       <c r="R5">
-        <v>4.37828646685584</v>
+        <v>80.498544323036</v>
       </c>
       <c r="S5">
-        <v>0.009016667433490133</v>
+        <v>0.01345072693850887</v>
       </c>
       <c r="T5">
-        <v>0.009016667433490133</v>
+        <v>0.01345072693850887</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.406463162424355</v>
+        <v>0.4242653333333333</v>
       </c>
       <c r="H6">
-        <v>0.406463162424355</v>
+        <v>1.272796</v>
       </c>
       <c r="I6">
-        <v>0.2962683366737698</v>
+        <v>0.2353146502133239</v>
       </c>
       <c r="J6">
-        <v>0.2962683366737698</v>
+        <v>0.2353146502133239</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N6">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P6">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q6">
-        <v>121.0612308162865</v>
+        <v>127.9584876074462</v>
       </c>
       <c r="R6">
-        <v>121.0612308162865</v>
+        <v>1151.626388467016</v>
       </c>
       <c r="S6">
-        <v>0.2493141701948356</v>
+        <v>0.1924284745360072</v>
       </c>
       <c r="T6">
-        <v>0.2493141701948356</v>
+        <v>0.1924284745360072</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.406463162424355</v>
+        <v>0.4242653333333333</v>
       </c>
       <c r="H7">
-        <v>0.406463162424355</v>
+        <v>1.272796</v>
       </c>
       <c r="I7">
-        <v>0.2962683366737698</v>
+        <v>0.2353146502133239</v>
       </c>
       <c r="J7">
-        <v>0.2962683366737698</v>
+        <v>0.2353146502133239</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N7">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P7">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q7">
-        <v>18.4215775819881</v>
+        <v>19.57358707824489</v>
       </c>
       <c r="R7">
-        <v>18.4215775819881</v>
+        <v>176.162283704204</v>
       </c>
       <c r="S7">
-        <v>0.03793749904544405</v>
+        <v>0.02943544873880788</v>
       </c>
       <c r="T7">
-        <v>0.03793749904544405</v>
+        <v>0.02943544873880788</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.188194209834096</v>
+        <v>0.2162813333333333</v>
       </c>
       <c r="H8">
-        <v>0.188194209834096</v>
+        <v>0.648844</v>
       </c>
       <c r="I8">
-        <v>0.1371735268372777</v>
+        <v>0.1199583428161417</v>
       </c>
       <c r="J8">
-        <v>0.1371735268372777</v>
+        <v>0.1199583428161417</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N8">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O8">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P8">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q8">
-        <v>2.027165652952857</v>
+        <v>4.559602768911555</v>
       </c>
       <c r="R8">
-        <v>2.027165652952857</v>
+        <v>41.036424920204</v>
       </c>
       <c r="S8">
-        <v>0.004174756189125261</v>
+        <v>0.006856891025498078</v>
       </c>
       <c r="T8">
-        <v>0.004174756189125261</v>
+        <v>0.006856891025498078</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.188194209834096</v>
+        <v>0.2162813333333333</v>
       </c>
       <c r="H9">
-        <v>0.188194209834096</v>
+        <v>0.648844</v>
       </c>
       <c r="I9">
-        <v>0.1371735268372777</v>
+        <v>0.1199583428161417</v>
       </c>
       <c r="J9">
-        <v>0.1371735268372777</v>
+        <v>0.1199583428161417</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N9">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O9">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P9">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q9">
-        <v>56.05187574471573</v>
+        <v>65.23048228715821</v>
       </c>
       <c r="R9">
-        <v>56.05187574471573</v>
+        <v>587.0743405844239</v>
       </c>
       <c r="S9">
-        <v>0.1154335437937562</v>
+        <v>0.09809589371104327</v>
       </c>
       <c r="T9">
-        <v>0.1154335437937562</v>
+        <v>0.09809589371104327</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.188194209834096</v>
+        <v>0.2162813333333333</v>
       </c>
       <c r="H10">
-        <v>0.188194209834096</v>
+        <v>0.648844</v>
       </c>
       <c r="I10">
-        <v>0.1371735268372777</v>
+        <v>0.1199583428161417</v>
       </c>
       <c r="J10">
-        <v>0.1371735268372777</v>
+        <v>0.1199583428161417</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N10">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O10">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P10">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q10">
-        <v>8.529270441783133</v>
+        <v>9.978193311572889</v>
       </c>
       <c r="R10">
-        <v>8.529270441783133</v>
+        <v>89.80373980415601</v>
       </c>
       <c r="S10">
-        <v>0.01756522685439627</v>
+        <v>0.01500555807960039</v>
       </c>
       <c r="T10">
-        <v>0.01756522685439627</v>
+        <v>0.01500555807960039</v>
       </c>
     </row>
   </sheetData>
